--- a/support/2023.xlsx
+++ b/support/2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcoc-my.sharepoint.com/personal/abates_rcoc_org/Documents/Desktop/Bids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcoc-my.sharepoint.com/personal/abates_rcoc_org/Documents/Documents/GitHub/bidAnalysis/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{57CBF805-7E34-4AC2-A9CF-2DD87D281EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9126F9-3000-45E9-B418-7ECAE13EA893}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{57CBF805-7E34-4AC2-A9CF-2DD87D281EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99CB61B8-4ED6-4A2A-AB72-55995246CD70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,14 +711,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,17 +735,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1105,210 +1105,210 @@
     <row r="5" spans="1:15" s="5" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="25" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="25" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="25" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="18">
         <v>50</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18">
         <v>50</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="25" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="25" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1530,237 +1530,237 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="21">
+      <c r="F19" s="22">
         <v>89066.2</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="21">
+      <c r="J19" s="22">
         <v>92028.6</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="12"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="21">
+      <c r="N19" s="22">
         <v>98676.1</v>
       </c>
-      <c r="O19" s="22"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="21" spans="1:15" s="5" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="19" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="25" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="25" t="s">
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="25" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="26">
         <v>45000</v>
       </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25" t="s">
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="18">
         <v>50</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="25" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="25" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1998,94 +1998,32 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="21">
+      <c r="F35" s="22">
         <v>107955.8</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="12"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="21">
+      <c r="J35" s="22">
         <v>121457.35</v>
       </c>
-      <c r="K35" s="22"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="12"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="21">
+      <c r="N35" s="22">
         <v>1126105</v>
       </c>
-      <c r="O35" s="22"/>
+      <c r="O35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="N19:O19"/>
@@ -2102,6 +2040,68 @@
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" scale="80" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -2122,6 +2122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -3748,26 +3749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="668c7407-b5b1-42b7-9c16-29d46fcfc2cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="396adcb7-f279-4b24-a21a-a75d7dd8678e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2835AEB0A61C544ACBA2BF4E5905FE5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c3f604bd7d6ca2825021f6f85368089">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="396adcb7-f279-4b24-a21a-a75d7dd8678e" xmlns:ns3="668c7407-b5b1-42b7-9c16-29d46fcfc2cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e25b5b6b0e38e6afeec2757eba34a374" ns2:_="" ns3:_="">
     <xsd:import namespace="396adcb7-f279-4b24-a21a-a75d7dd8678e"/>
@@ -3968,26 +3949,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B98266-889A-4355-A919-9ABDE1228541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="668c7407-b5b1-42b7-9c16-29d46fcfc2cb"/>
-    <ds:schemaRef ds:uri="396adcb7-f279-4b24-a21a-a75d7dd8678e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FB1FD42-B8F2-4A89-9633-856ECB180642}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="668c7407-b5b1-42b7-9c16-29d46fcfc2cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="396adcb7-f279-4b24-a21a-a75d7dd8678e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409AACBA-9ED7-4F82-96F0-ED07AA0198B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4004,4 +3986,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FB1FD42-B8F2-4A89-9633-856ECB180642}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B98266-889A-4355-A919-9ABDE1228541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="668c7407-b5b1-42b7-9c16-29d46fcfc2cb"/>
+    <ds:schemaRef ds:uri="396adcb7-f279-4b24-a21a-a75d7dd8678e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>